--- a/GUA work/Pt(100)/IR chamber/GUA IR peak ratios.xlsx
+++ b/GUA work/Pt(100)/IR chamber/GUA IR peak ratios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8845A-E9AB-42B7-8CF3-B4649E64CD33}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0B556-6EF7-4F81-B479-B13C6F8EC393}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="9609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10211" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1116,6 +1116,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1861,16 +1862,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257695</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>344979</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241069</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>174567</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>112223</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257694</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99753</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2163,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
